--- a/VectorDataInExcel-2NF.xlsx
+++ b/VectorDataInExcel-2NF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Database\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="332" documentId="8_{9B9F850F-ADFF-4EEF-A28E-9D797F0D7DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{9145BDEB-643B-45E2-9F3D-C2B91B21C80A}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="8_{9B9F850F-ADFF-4EEF-A28E-9D797F0D7DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{BD6218DC-6011-4F10-BEE8-85B92B991643}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7DCE2BE0-953A-4365-ADEC-B2ECAC53B523}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>User Name</t>
   </si>
@@ -298,10 +298,7 @@
     <t>Modem Status External</t>
   </si>
   <si>
-    <t xml:space="preserve"> Blade</t>
-  </si>
-  <si>
-    <t>Whip</t>
+    <t xml:space="preserve"> Blade and/or Whip</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1498,8 @@
   </sheetPr>
   <dimension ref="B2:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,9 +1524,6 @@
       <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -1538,9 +1532,6 @@
       <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
@@ -1549,9 +1540,6 @@
       <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
@@ -1559,9 +1547,6 @@
       </c>
       <c r="C5" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1627,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
@@ -1650,63 +1635,63 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="C20" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10">
+      <c r="C21" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="11">
+      <c r="C22" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
@@ -1714,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1707,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1715,7 @@
         <v>21.769230769230798</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>41</v>
       </c>
@@ -1746,7 +1731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
@@ -1754,7 +1739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>77</v>
       </c>
@@ -1762,63 +1747,63 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16">
+      <c r="C36" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="18">
+      <c r="C37" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="16">
+      <c r="C38" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
         <v>19</v>
       </c>
@@ -1834,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>24</v>
       </c>
@@ -1842,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>44</v>
       </c>
@@ -1858,7 +1843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
         <v>80</v>
       </c>
@@ -1874,223 +1859,163 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="5">
         <v>6</v>
       </c>
-      <c r="D52" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="3">
         <v>12</v>
       </c>
-      <c r="D53" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="5">
         <v>15</v>
       </c>
-      <c r="D54" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="3">
         <v>30</v>
       </c>
-      <c r="D55" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C56" s="5">
         <v>10</v>
       </c>
-      <c r="D56" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="3">
         <v>20</v>
       </c>
-      <c r="D57" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="11">
         <v>152.75243237628899</v>
       </c>
-      <c r="D61" s="11">
-        <v>152.75243237628899</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="10">
         <v>-27.6047716895375</v>
       </c>
-      <c r="D62" s="10">
-        <v>-27.6047716895375</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="11">
         <v>8.9314404000248103E+19</v>
       </c>
-      <c r="D65" s="11">
-        <v>8.9314404000248103E+19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="10">
         <v>8.9610180002248999E+19</v>
       </c>
-      <c r="D66" s="10">
-        <v>8.9610180002248999E+19</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="11">
         <v>3.92</v>
       </c>
-      <c r="D71" s="11">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="7" t="s">
         <v>73</v>
       </c>
     </row>

--- a/VectorDataInExcel-2NF.xlsx
+++ b/VectorDataInExcel-2NF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Database\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{9B9F850F-ADFF-4EEF-A28E-9D797F0D7DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{BD6218DC-6011-4F10-BEE8-85B92B991643}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="8_{9B9F850F-ADFF-4EEF-A28E-9D797F0D7DC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{CC9D0C90-725D-4071-9364-688155112A55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7DCE2BE0-953A-4365-ADEC-B2ECAC53B523}"/>
   </bookViews>
@@ -514,15 +514,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1175162</xdr:colOff>
+      <xdr:colOff>1175161</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>61851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1373084</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>111331</xdr:rowOff>
+      <xdr:colOff>1385454</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -537,8 +537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1175162" y="9896104"/>
-          <a:ext cx="197922" cy="2461656"/>
+          <a:off x="1175161" y="9896104"/>
+          <a:ext cx="210293" cy="1199902"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -922,13 +922,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1063832</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123701</xdr:rowOff>
+      <xdr:rowOff>123702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1138052</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>6185</xdr:rowOff>
+      <xdr:colOff>1150422</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -943,8 +943,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1063832" y="494805"/>
-          <a:ext cx="74220" cy="10644497"/>
+          <a:off x="1063832" y="494806"/>
+          <a:ext cx="86590" cy="11702142"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1191,6 +1191,64 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1191490</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>3958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1401783</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>90548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Left Brace 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43079B38-90E0-4668-A2A0-9DF08E07A85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1191490" y="11322627"/>
+          <a:ext cx="210293" cy="1199902"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-NZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1496,10 +1554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E72"/>
+  <dimension ref="B2:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,114 +1966,114 @@
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>55</v>
+      <c r="B59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="11">
+        <v>152.75243237628899</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>5</v>
+      <c r="B60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="10">
+        <v>-27.6047716895375</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="11">
-        <v>152.75243237628899</v>
+        <v>58</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="10">
-        <v>-27.6047716895375</v>
+        <v>60</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>59</v>
+      <c r="B63" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C65" s="11">
-        <v>8.9314404000248103E+19</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="10">
-        <v>8.9610180002248999E+19</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>51</v>
+      <c r="B67" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>66</v>
+      <c r="B68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="C69" s="11">
+        <v>8.9314404000248103E+19</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="C70" s="10">
+        <v>8.9610180002248999E+19</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="11">
-        <v>3.92</v>
+        <v>64</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>73</v>
       </c>
     </row>
